--- a/biology/Histoire de la zoologie et de la botanique/Nathaniel_Southgate_Shaler/Nathaniel_Southgate_Shaler.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Nathaniel_Southgate_Shaler/Nathaniel_Southgate_Shaler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nathaniel Southgate Shaler (20 février 1841-10 avril 1906) est un paléontologue et géologue qui s'intéresse particulièrement aux implications théologiques et scientifiques de la théorie de l'évolution.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Shaler étudie à l'université Harvard sous la direction de Louis Agassiz. Il y reste d'ailleurs en tant que conférencier puis professeur de paléontologie pendant deux décennies (1869-1888) suivi par deux autres décennies d'enseignement en tant que professeur de géologie (1888-1906).
 Très tôt dans sa carrière professionnelle, Shaler se positionne en tant que créationniste et anti-darwiniste. C'est principalement par déférence à Agazziz dont la bienveillance permet à Shaler une rapide ascension dans la hiérarchie de Harvard. Quand sa place est assurée, il accepte progressivement les principes darwiniens mais au travers de la pensée néo-lamarckienne : la doctrine de la sélection naturelle — hasard, éventualités et opportunisme — est rejetée pour une vision d'ordre, de but et de progrès dans lesquels les caractéristiques biologiques sont héritées grâce à l'effort individuel de chaque organisme. Shaler soutient également le polygénisme d'Agassiz, une théorie raciste, lui donnant ainsi le vernis universitaire qui lui manquait.
